--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05294233333333333</v>
+        <v>0.020131</v>
       </c>
       <c r="H2">
-        <v>0.158827</v>
+        <v>0.060393</v>
       </c>
       <c r="I2">
-        <v>0.01658317929764529</v>
+        <v>0.0058831740909272</v>
       </c>
       <c r="J2">
-        <v>0.01672256578258148</v>
+        <v>0.006076836619800507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8122763614007963</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P2">
-        <v>0.8638687058964239</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q2">
-        <v>0.1223655091486667</v>
+        <v>0.046528740038</v>
       </c>
       <c r="R2">
-        <v>1.101289582338</v>
+        <v>0.418758660342</v>
       </c>
       <c r="S2">
-        <v>0.01347012454034833</v>
+        <v>0.005751828571614871</v>
       </c>
       <c r="T2">
-        <v>0.01444610126186648</v>
+        <v>0.005985712380921502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,108 +599,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05294233333333333</v>
+        <v>0.020131</v>
       </c>
       <c r="H3">
-        <v>0.158827</v>
+        <v>0.060393</v>
       </c>
       <c r="I3">
-        <v>0.01658317929764529</v>
+        <v>0.0058831740909272</v>
       </c>
       <c r="J3">
-        <v>0.01672256578258148</v>
+        <v>0.006076836619800507</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.02434666666666667</v>
+        <v>0.0527795</v>
       </c>
       <c r="N3">
-        <v>0.07303999999999999</v>
+        <v>0.105559</v>
       </c>
       <c r="O3">
-        <v>0.008556327142686945</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P3">
-        <v>0.009099788701510982</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q3">
-        <v>0.001288969342222222</v>
+        <v>0.0010625041145</v>
       </c>
       <c r="R3">
-        <v>0.01160072408</v>
+        <v>0.006375024687</v>
       </c>
       <c r="S3">
-        <v>0.0001418911071364866</v>
+        <v>0.0001313455193123289</v>
       </c>
       <c r="T3">
-        <v>0.0001521718151686091</v>
+        <v>9.112423887900405E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05294233333333333</v>
+        <v>3.059758333333333</v>
       </c>
       <c r="H4">
-        <v>0.158827</v>
+        <v>9.179275000000001</v>
       </c>
       <c r="I4">
-        <v>0.01658317929764529</v>
+        <v>0.8941975535822989</v>
       </c>
       <c r="J4">
-        <v>0.01672256578258148</v>
+        <v>0.9236327796800838</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5098130000000001</v>
+        <v>2.311298</v>
       </c>
       <c r="N4">
-        <v>1.019626</v>
+        <v>6.933894</v>
       </c>
       <c r="O4">
-        <v>0.1791673114565167</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P4">
-        <v>0.1270315054020652</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q4">
-        <v>0.02699068978366667</v>
+        <v>7.072013316316668</v>
       </c>
       <c r="R4">
-        <v>0.161944138702</v>
+        <v>63.64811984685001</v>
       </c>
       <c r="S4">
-        <v>0.002971163650160474</v>
+        <v>0.8742340372511731</v>
       </c>
       <c r="T4">
-        <v>0.002124292705546389</v>
+        <v>0.9097825909523162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,196 +729,196 @@
         <v>9.179275000000001</v>
       </c>
       <c r="I5">
-        <v>0.9584111212035296</v>
+        <v>0.8941975535822989</v>
       </c>
       <c r="J5">
-        <v>0.9664668477268072</v>
+        <v>0.9236327796800838</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.311298</v>
+        <v>0.0527795</v>
       </c>
       <c r="N5">
-        <v>6.933894</v>
+        <v>0.105559</v>
       </c>
       <c r="O5">
-        <v>0.8122763614007963</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P5">
-        <v>0.8638687058964239</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q5">
-        <v>7.072013316316668</v>
+        <v>0.1614925149541667</v>
       </c>
       <c r="R5">
-        <v>63.64811984685001</v>
+        <v>0.9689550897250001</v>
       </c>
       <c r="S5">
-        <v>0.7784946982572606</v>
+        <v>0.01996351633112575</v>
       </c>
       <c r="T5">
-        <v>0.8349004650375532</v>
+        <v>0.01385018872776762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.014756</v>
+      </c>
+      <c r="H6">
+        <v>0.044268</v>
+      </c>
+      <c r="I6">
+        <v>0.004312359887026068</v>
+      </c>
+      <c r="J6">
+        <v>0.004454314299427563</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3.059758333333333</v>
-      </c>
-      <c r="H6">
-        <v>9.179275000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.9584111212035296</v>
-      </c>
-      <c r="J6">
-        <v>0.9664668477268072</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02434666666666667</v>
+        <v>2.311298</v>
       </c>
       <c r="N6">
-        <v>0.07303999999999999</v>
+        <v>6.933894</v>
       </c>
       <c r="O6">
-        <v>0.008556327142686945</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P6">
-        <v>0.009099788701510982</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q6">
-        <v>0.07449491622222222</v>
+        <v>0.034105513288</v>
       </c>
       <c r="R6">
-        <v>0.670454246</v>
+        <v>0.306949619592</v>
       </c>
       <c r="S6">
-        <v>0.008200479090206787</v>
+        <v>0.004216083771434556</v>
       </c>
       <c r="T6">
-        <v>0.008794644101329336</v>
+        <v>0.004387520336440201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.059758333333333</v>
+        <v>0.014756</v>
       </c>
       <c r="H7">
-        <v>9.179275000000001</v>
+        <v>0.044268</v>
       </c>
       <c r="I7">
-        <v>0.9584111212035296</v>
+        <v>0.004312359887026068</v>
       </c>
       <c r="J7">
-        <v>0.9664668477268072</v>
+        <v>0.004454314299427563</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.5098130000000001</v>
+        <v>0.0527795</v>
       </c>
       <c r="N7">
-        <v>1.019626</v>
+        <v>0.105559</v>
       </c>
       <c r="O7">
-        <v>0.1791673114565167</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P7">
-        <v>0.1270315054020652</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q7">
-        <v>1.559904575191667</v>
+        <v>0.0007788143020000001</v>
       </c>
       <c r="R7">
-        <v>9.359427451150001</v>
+        <v>0.004672885812</v>
       </c>
       <c r="S7">
-        <v>0.1717159438560622</v>
+        <v>9.627611559151184E-05</v>
       </c>
       <c r="T7">
-        <v>0.1227717385879248</v>
+        <v>6.679396298736197E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0798315</v>
+        <v>0.327147</v>
       </c>
       <c r="H8">
-        <v>0.159663</v>
+        <v>0.654294</v>
       </c>
       <c r="I8">
-        <v>0.0250056994988252</v>
+        <v>0.0956069124397477</v>
       </c>
       <c r="J8">
-        <v>0.01681058649061121</v>
+        <v>0.06583606940068805</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,146 +933,84 @@
         <v>6.933894</v>
       </c>
       <c r="O8">
-        <v>0.8122763614007963</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P8">
-        <v>0.8638687058964239</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q8">
-        <v>0.184514386287</v>
+        <v>0.7561342068060002</v>
       </c>
       <c r="R8">
-        <v>1.107086317722</v>
+        <v>4.536805240836</v>
       </c>
       <c r="S8">
-        <v>0.02031153860318745</v>
+        <v>0.0934724286780632</v>
       </c>
       <c r="T8">
-        <v>0.01452213959700421</v>
+        <v>0.06484883507298286</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.327147</v>
+      </c>
+      <c r="H9">
+        <v>0.654294</v>
+      </c>
+      <c r="I9">
+        <v>0.0956069124397477</v>
+      </c>
+      <c r="J9">
+        <v>0.06583606940068805</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.5</v>
       </c>
-      <c r="G9">
-        <v>0.0798315</v>
-      </c>
-      <c r="H9">
-        <v>0.159663</v>
-      </c>
-      <c r="I9">
-        <v>0.0250056994988252</v>
-      </c>
-      <c r="J9">
-        <v>0.01681058649061121</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.02434666666666667</v>
+        <v>0.0527795</v>
       </c>
       <c r="N9">
-        <v>0.07303999999999999</v>
+        <v>0.105559</v>
       </c>
       <c r="O9">
-        <v>0.008556327142686945</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P9">
-        <v>0.009099788701510982</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q9">
-        <v>0.00194363092</v>
+        <v>0.0172666550865</v>
       </c>
       <c r="R9">
-        <v>0.01166178552</v>
+        <v>0.069066620346</v>
       </c>
       <c r="S9">
-        <v>0.0002139569453436714</v>
+        <v>0.002134483761684489</v>
       </c>
       <c r="T9">
-        <v>0.000152972785013037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.0798315</v>
-      </c>
-      <c r="H10">
-        <v>0.159663</v>
-      </c>
-      <c r="I10">
-        <v>0.0250056994988252</v>
-      </c>
-      <c r="J10">
-        <v>0.01681058649061121</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.5098130000000001</v>
-      </c>
-      <c r="N10">
-        <v>1.019626</v>
-      </c>
-      <c r="O10">
-        <v>0.1791673114565167</v>
-      </c>
-      <c r="P10">
-        <v>0.1270315054020652</v>
-      </c>
-      <c r="Q10">
-        <v>0.04069913650950001</v>
-      </c>
-      <c r="R10">
-        <v>0.162796546038</v>
-      </c>
-      <c r="S10">
-        <v>0.004480203950294079</v>
-      </c>
-      <c r="T10">
-        <v>0.002135474108593962</v>
+        <v>0.0009872343277051825</v>
       </c>
     </row>
   </sheetData>
